--- a/scr/output.xlsx
+++ b/scr/output.xlsx
@@ -43,35 +43,37 @@
     <t>questions_merged</t>
   </si>
   <si>
-    <t>ТЕМА</t>
-  </si>
-  <si>
-    <t>Для каких документов необходимо официальное согласование с должностными лицами, в ведении которых находятся вопросы, изложенные в проекте?</t>
-  </si>
-  <si>
-    <t>Какие должны быть согласующие лица для проекта документа?
-- Кто должен согласовать проект документа?
-- Каким образом осуществляется согласование проекта документа?</t>
-  </si>
-  <si>
-    <t>Ответственный исполнитель должен получить до представления на подпись (утверждение) проекта документа его официальное согласование с должностными лицами (руководителями подразделений общества), в ведении которых находятся вопросы, изложенные в проекте. Согласование проекта осуществляется путем направления его по маршруту «Согласование», сформированному в ЕАСД. Круг согласующих не следует без надобности расширять.</t>
-  </si>
-  <si>
-    <t>Ответственный исполнитель должен получить согласование проекта.</t>
-  </si>
-  <si>
-    <t>Перед подписью проекта, исполнитель должен согласовать его.</t>
+    <t>ИНСТРУКЦИЯ ПО СИГНАЛИЗАЦИИ НА ЖЕЛЕЗНОДОРОЖНОМ ТРАНСПОРТЕ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t>Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам для обеспечения безотказной и безопасной работы железнодорожного транспорта, а также типы сигнальных приборов для передачи сигналов на железнодорожном транспорте. Какой краткий вопрос вы хотели бы задать по этому тексту?</t>
+  </si>
+  <si>
+    <t>Ниже приведены три различных способа задать краткий вопрос по тексту "Инструкция по сигнализации на железнодорожном транспорте Российской Федерации":
+1. Какие требования устанавливает инструкция по сигнализации на железнодорожном транспорте Российской Федерации?
+2. Какие типы сигнальных приборов используются на железнодорожном транспорте Российской Федерации для передачи сигналов?
+3. Для чего устанавливаются требования к сигналам на железнодорожном транспорте Российской Федерации и какие типы сигнальных приборов используются для передачи сигналов?</t>
+  </si>
+  <si>
+    <t>Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам для обеспечения безотказной и безопасной работы железнодорожного транспорта, а также типы сигнальных приборов для передачи сигналов на железнодорожном транспорте.</t>
+  </si>
+  <si>
+    <t>Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам и приборам.</t>
+  </si>
+  <si>
+    <t>Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам и типы сигнальных приборов.</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>[Ответственный исполнитель должен получить до представления на подпись (утверждение) проекта документа его официальное согласование с должностными лицами (руководителями подразделений общества), в ведении которых находятся вопросы, изложенные в проекте. Согласование проекта осуществляется путем направления его по маршруту «Согласование», сформированному в ЕАСД. Круг согласующих не следует без надобности расширять.,Ответственный исполнитель должен получить согласование проекта.,Перед подписью проекта, исполнитель должен согласовать его.]</t>
-  </si>
-  <si>
-    <t>[Для каких документов необходимо официальное согласование с должностными лицами, в ведении которых находятся вопросы, изложенные в проекте?,Какие должны быть согласующие лица для проекта документа?
-- Кто должен согласовать проект документа?
-- Каким образом осуществляется согласование проекта документа?]</t>
+    <t>[Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам для обеспечения безотказной и безопасной работы железнодорожного транспорта, а также типы сигнальных приборов для передачи сигналов на железнодорожном транспорте.,Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам и приборам.,Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам и типы сигнальных приборов.]</t>
+  </si>
+  <si>
+    <t>[Инструкция по сигнализации на железнодорожном транспорте Российской Федерации устанавливает требования к сигналам для обеспечения безотказной и безопасной работы железнодорожного транспорта, а также типы сигнальных приборов для передачи сигналов на железнодорожном транспорте. Какой краткий вопрос вы хотели бы задать по этому тексту?,Ниже приведены три различных способа задать краткий вопрос по тексту "Инструкция по сигнализации на железнодорожном транспорте Российской Федерации":
+1. Какие требования устанавливает инструкция по сигнализации на железнодорожном транспорте Российской Федерации?
+2. Какие типы сигнальных приборов используются на железнодорожном транспорте Российской Федерации для передачи сигналов?
+3. Для чего устанавливаются требования к сигналам на железнодорожном транспорте Российской Федерации и какие типы сигнальных приборов используются для передачи сигналов?]</t>
   </si>
 </sst>
 </file>
